--- a/MNIST/ablation/original/count.xlsx
+++ b/MNIST/ablation/original/count.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F28AB05-A0F5-46B2-B4B8-C4E01FD1E280}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D55D148-1C5D-43FD-A9D1-81E73B3525F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,11 +20,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>svhn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>semeion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -61,8 +73,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -343,287 +356,425 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="8" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>99.47</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>99.52</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>99.53</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>99.58</v>
       </c>
-      <c r="E1">
+      <c r="E2">
         <v>99.5</v>
       </c>
-      <c r="G1">
-        <f>AVERAGE(A1:E1)</f>
+      <c r="G2" s="1">
+        <f>AVERAGE(A2:E2)</f>
         <v>99.52</v>
       </c>
-      <c r="H1">
-        <f>AVERAGE(STDEV(A1:E1))</f>
+      <c r="H2" s="1">
+        <f>AVERAGE(STDEV(A2:E2))</f>
         <v>4.062019202317959E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>98.831000000000003</v>
-      </c>
-      <c r="B3">
-        <v>97.582999999999998</v>
-      </c>
-      <c r="C3">
-        <v>97.715000000000003</v>
-      </c>
-      <c r="D3">
-        <v>98.328000000000003</v>
-      </c>
-      <c r="E3">
-        <v>97.766000000000005</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G2:G13" si="0">AVERAGE(A3:E3)</f>
-        <v>98.044600000000003</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H2:H13" si="1">AVERAGE(STDEV(A3:E3))</f>
-        <v>0.52394398555570865</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>99.447999999999993</v>
+        <v>98.831000000000003</v>
       </c>
       <c r="B4">
-        <v>99.27</v>
+        <v>97.582999999999998</v>
       </c>
       <c r="C4">
-        <v>99.302999999999997</v>
+        <v>97.715000000000003</v>
       </c>
       <c r="D4">
-        <v>99.495000000000005</v>
+        <v>98.328000000000003</v>
       </c>
       <c r="E4">
-        <v>98.796000000000006</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>99.262399999999985</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
-        <v>0.2773919609505624</v>
+        <v>97.766000000000005</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G23" si="0">AVERAGE(A4:E4)</f>
+        <v>98.044600000000003</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H23" si="1">AVERAGE(STDEV(A4:E4))</f>
+        <v>0.52394398555570865</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>97.262</v>
+        <v>99.447999999999993</v>
       </c>
       <c r="B5">
-        <v>96.81</v>
+        <v>99.27</v>
       </c>
       <c r="C5">
-        <v>96.831999999999994</v>
+        <v>99.302999999999997</v>
       </c>
       <c r="D5">
-        <v>97.138999999999996</v>
+        <v>99.495000000000005</v>
       </c>
       <c r="E5">
-        <v>96.951999999999998</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>96.998999999999995</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>0.19658840250635365</v>
+        <v>98.796000000000006</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>99.262399999999985</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.2773919609505624</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>98.941999999999993</v>
+        <v>97.262</v>
       </c>
       <c r="B6">
-        <v>97.659000000000006</v>
+        <v>96.81</v>
       </c>
       <c r="C6">
-        <v>98.322999999999993</v>
+        <v>96.831999999999994</v>
       </c>
       <c r="D6">
-        <v>98.742000000000004</v>
+        <v>97.138999999999996</v>
       </c>
       <c r="E6">
-        <v>97.378</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>98.208799999999997</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>0.6759132340766798</v>
+        <v>96.951999999999998</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>96.998999999999995</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.19658840250635365</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
+        <v>98.941999999999993</v>
+      </c>
+      <c r="B7">
+        <v>97.659000000000006</v>
+      </c>
+      <c r="C7">
+        <v>98.322999999999993</v>
+      </c>
+      <c r="D7">
+        <v>98.742000000000004</v>
+      </c>
+      <c r="E7">
+        <v>97.378</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>98.208799999999997</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.6759132340766798</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>99.759</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>99.745000000000005</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>99.665000000000006</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>99.808000000000007</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>99.277000000000001</v>
       </c>
-      <c r="G7">
+      <c r="G8" s="1">
         <f t="shared" si="0"/>
         <v>99.650800000000004</v>
       </c>
-      <c r="H7">
+      <c r="H8" s="1">
         <f t="shared" si="1"/>
         <v>0.21518643079897168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>90.733000000000004</v>
-      </c>
-      <c r="B9">
-        <v>92.287000000000006</v>
-      </c>
-      <c r="C9">
-        <v>96.091999999999999</v>
-      </c>
-      <c r="D9">
-        <v>90.497</v>
-      </c>
-      <c r="E9">
-        <v>90.216999999999999</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>91.96520000000001</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>2.4425480957393648</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>98.69</v>
+        <v>90.733000000000004</v>
       </c>
       <c r="B10">
-        <v>99.06</v>
+        <v>92.287000000000006</v>
       </c>
       <c r="C10">
-        <v>98.805000000000007</v>
+        <v>96.091999999999999</v>
       </c>
       <c r="D10">
-        <v>97.641000000000005</v>
+        <v>90.497</v>
       </c>
       <c r="E10">
-        <v>98.01</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>98.441200000000009</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>0.59232989119239832</v>
+        <v>90.216999999999999</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>91.96520000000001</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4425480957393648</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>96.013999999999996</v>
+        <v>98.69</v>
       </c>
       <c r="B11">
-        <v>96.287000000000006</v>
+        <v>99.06</v>
       </c>
       <c r="C11">
-        <v>96.238</v>
+        <v>98.805000000000007</v>
       </c>
       <c r="D11">
-        <v>93.682000000000002</v>
+        <v>97.641000000000005</v>
       </c>
       <c r="E11">
-        <v>94.451999999999998</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>95.334599999999995</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
-        <v>1.1931943680725283</v>
+        <v>98.01</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>98.441200000000009</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.59232989119239832</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>99.992999999999995</v>
+        <v>96.013999999999996</v>
       </c>
       <c r="B12">
-        <v>99.995000000000005</v>
+        <v>96.287000000000006</v>
       </c>
       <c r="C12">
-        <v>99.994</v>
+        <v>96.238</v>
       </c>
       <c r="D12">
-        <v>99.989000000000004</v>
+        <v>93.682000000000002</v>
       </c>
       <c r="E12">
-        <v>99.989000000000004</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>99.992000000000004</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
-        <v>2.8284271247446227E-3</v>
+        <v>94.451999999999998</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>95.334599999999995</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1931943680725283</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
+        <v>99.992999999999995</v>
+      </c>
+      <c r="B13">
+        <v>99.995000000000005</v>
+      </c>
+      <c r="C13">
+        <v>99.994</v>
+      </c>
+      <c r="D13">
+        <v>99.989000000000004</v>
+      </c>
+      <c r="E13">
+        <v>99.989000000000004</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>99.992000000000004</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8284271247446227E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>28.571000000000002</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>39.996000000000002</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>33.420999999999999</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>27.302</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>33.640999999999998</v>
       </c>
-      <c r="G13">
+      <c r="G14" s="1">
         <f t="shared" si="0"/>
         <v>32.586199999999998</v>
       </c>
-      <c r="H13">
+      <c r="H14" s="1">
         <f t="shared" si="1"/>
         <v>5.0189448791554092</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>97.033000000000001</v>
+      </c>
+      <c r="B19">
+        <v>97.915999999999997</v>
+      </c>
+      <c r="C19">
+        <v>97.831999999999994</v>
+      </c>
+      <c r="D19">
+        <v>97.747</v>
+      </c>
+      <c r="E19">
+        <v>98.947000000000003</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>97.89500000000001</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.68484706321922784</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>99.231999999999999</v>
+      </c>
+      <c r="B20">
+        <v>99.296000000000006</v>
+      </c>
+      <c r="C20">
+        <v>99.004000000000005</v>
+      </c>
+      <c r="D20">
+        <v>99.045000000000002</v>
+      </c>
+      <c r="E20">
+        <v>99.262</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>99.167800000000014</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.13354849306525293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>96.242000000000004</v>
+      </c>
+      <c r="B21">
+        <v>96.768000000000001</v>
+      </c>
+      <c r="C21">
+        <v>96.784999999999997</v>
+      </c>
+      <c r="D21">
+        <v>96.76</v>
+      </c>
+      <c r="E21">
+        <v>97.725999999999999</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
+        <v>96.856199999999987</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.53756320558609483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>99.878</v>
+      </c>
+      <c r="B22">
+        <v>99.885999999999996</v>
+      </c>
+      <c r="C22">
+        <v>99.83</v>
+      </c>
+      <c r="D22">
+        <v>99.838999999999999</v>
+      </c>
+      <c r="E22">
+        <v>99.89</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>99.864599999999996</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="1"/>
+        <v>2.7996428343629993E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>95.855999999999995</v>
+      </c>
+      <c r="B23">
+        <v>96.378</v>
+      </c>
+      <c r="C23">
+        <v>93.971000000000004</v>
+      </c>
+      <c r="D23">
+        <v>95.165000000000006</v>
+      </c>
+      <c r="E23">
+        <v>93.46</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="0"/>
+        <v>94.965999999999994</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2332382170529752</v>
       </c>
     </row>
   </sheetData>
